--- a/Imag/fgm/resultados.xlsx
+++ b/Imag/fgm/resultados.xlsx
@@ -490,31 +490,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>genextreme</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.06131492904473233</v>
+        <v>0.04679176686782389</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9888145887112656</v>
+        <v>0.2239671065721148</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4554222509115403</v>
+        <v>0.4267370972690093</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(-0.0027137250916196044,)</t>
+          <t>(2.3814677481780855,)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(-0.0027137250916196044, 0.9888145887112656, 0.4554222509115403)</t>
+          <t>(2.3814677481780855, 0.22396710657211483, 0.42673709726900927)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F7532A70D0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A1176E620&gt;</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -529,31 +529,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>lognorm</t>
+          <t>beta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.06132237553894249</v>
+        <v>0.04846593277568847</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.3926164620599195</v>
+        <v>0.3082312302862353</v>
       </c>
       <c r="D3" t="n">
-        <v>1.551178719291237</v>
+        <v>3.404691665210418</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(0.34511853873923704,)</t>
+          <t>(1.316635243529749, 3.5062612390779773)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(0.34511853873923704, -0.39261646205991946, 1.5511787192912372)</t>
+          <t>(1.316635243529749, 3.5062612390779773, 0.30823123028623534, 3.404691665210418)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F7532A66E0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A1176FE50&gt;</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -568,31 +568,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>beta</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06701197007429777</v>
+        <v>0.06829544601326309</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.05221037514891885</v>
+        <v>-0.28805358374032</v>
       </c>
       <c r="D4" t="n">
-        <v>505693489840.3921</v>
+        <v>1.409969218469108</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(5.226936840147504, 2026036330718.748)</t>
+          <t>(0.4057957658951769,)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(5.226936840147504, 2026036330718.748, -0.05221037514891885, 505693489840.3921)</t>
+          <t>(0.4057957658951769, -0.28805358374032003, 1.4099692184691077)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F7532A4EE0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A1176D6F0&gt;</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -607,31 +607,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>genextreme</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06703409275781598</v>
+        <v>0.08237470588555697</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.03592503540865337</v>
+        <v>0.9551745974744452</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2565396309013033</v>
+        <v>0.4880054793026742</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(5.0270878095246445,)</t>
+          <t>(-0.0014530660569484464,)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(5.0270878095246445, -0.03592503540865337, 0.2565396309013033)</t>
+          <t>(-0.0014530660569484464, 0.9551745974744452, 0.48800547930267424)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F7532A5BD0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A1176D570&gt;</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -646,31 +646,31 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>dweibull</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1794912106926833</v>
+        <v>0.1168139754420424</v>
       </c>
       <c r="C6" t="n">
-        <v>1.195831123281822</v>
+        <v>1.178237531880076</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4852395919346184</v>
+        <v>0.5384667559955931</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(6.29617388568693,)</t>
+          <t>(1.3539866392456816,)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(6.29617388568693, 1.1958311232818217, 0.48523959193461835)</t>
+          <t>(1.3539866392456816, 1.1782375318800757, 0.5384667559955931)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F7532D20B0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A1176C640&gt;</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -685,31 +685,31 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>dweibull</t>
+          <t>norm</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1966465758623999</v>
+        <v>0.1607444356231474</v>
       </c>
       <c r="C7" t="n">
-        <v>1.15740658264949</v>
+        <v>1.240224037876541</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4624186146900058</v>
+        <v>0.6146880245031469</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(1.1300262047773095,)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(1.1300262047773095, 1.1574065826494901, 0.4624186146900058)</t>
+          <t>(1.2402240378765406, 0.6146880245031469)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F7532D1270&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A1176DFF0&gt;</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -724,31 +724,31 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>norm</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.234711660254395</v>
+        <v>0.160849065145841</v>
       </c>
       <c r="C8" t="n">
-        <v>1.253724197723135</v>
+        <v>1.223333863738669</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5840097830716086</v>
+        <v>0.5889269286699567</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(24.30740708902836,)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(1.253724197723135, 0.5840097830716086)</t>
+          <t>(24.30740708902836, 1.2233338637386693, 0.5889269286699567)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F7532A6F50&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A1176CFD0&gt;</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -767,27 +767,27 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2383245772705059</v>
+        <v>0.1624277535410654</v>
       </c>
       <c r="C9" t="n">
-        <v>-201.4953335665941</v>
+        <v>-210.3489627235128</v>
       </c>
       <c r="D9" t="n">
-        <v>26.61903436857517</v>
+        <v>27.78785469106813</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(2032.0193371672713,)</t>
+          <t>(2027.7067172502575,)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(2032.0193371672713, -201.49533356659413, 26.61903436857517)</t>
+          <t>(2027.7067172502575, -210.34896272351284, 27.787854691068134)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F7532A5ED0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A1176D9C0&gt;</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -802,17 +802,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>uniform</t>
+          <t>expon</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.380217975793826</v>
+        <v>0.2169243257474388</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09606243729222272</v>
+        <v>0.3175720422019507</v>
       </c>
       <c r="D10" t="n">
-        <v>3.449969616632875</v>
+        <v>0.9226519956745898</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -821,12 +821,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(0.09606243729222272, 3.4499696166328753)</t>
+          <t>(0.31757204220195073, 0.9226519956745898)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F7532A7160&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A1176CE50&gt;</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -841,31 +841,31 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>expon</t>
+          <t>pareto</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.425695729988117</v>
+        <v>0.2169243289542118</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09606243729222272</v>
+        <v>-67108863.68242796</v>
       </c>
       <c r="D11" t="n">
-        <v>1.157661760430912</v>
+        <v>67108863.99999999</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(72734752.66991387,)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(0.09606243729222272, 1.1576617604309123)</t>
+          <t>(72734752.66991387, -67108863.68242796, 67108863.99999999)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F7532A7FD0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A1176DC00&gt;</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -880,31 +880,31 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>pareto</t>
+          <t>uniform</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.425695733836843</v>
+        <v>0.4813624462710696</v>
       </c>
       <c r="C12" t="n">
-        <v>-67108863.90393756</v>
+        <v>0.3175720422019507</v>
       </c>
       <c r="D12" t="n">
-        <v>67108864</v>
+        <v>2.852477340539932</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>(57969319.70795116,)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(57969319.70795116, -67108863.90393756, 67108864.0)</t>
+          <t>(0.31757204220195073, 2.852477340539932)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F7532D39D0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A1176F3A0&gt;</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -990,31 +990,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>lognorm</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.007872236227056805</v>
+        <v>0.1273767485462026</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.5635853398561667</v>
+        <v>0.1201267511124081</v>
       </c>
       <c r="D2" t="n">
-        <v>1.722538258943486</v>
+        <v>0.3061999935498383</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(0.3346467837234746,)</t>
+          <t>(3.6533233395577183,)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(0.3346467837234746, -0.5635853398561667, 1.7225382589434861)</t>
+          <t>(3.6533233395577183, 0.12012675111240814, 0.3061999935498383)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F7531A10C0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A114FA770&gt;</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1029,31 +1029,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>genextreme</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.008198408218331016</v>
+        <v>0.1317893886099593</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9741563007001042</v>
+        <v>-0.1662815897440199</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4922593293859117</v>
+        <v>1.291890785526518</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(-0.0024183797591069483,)</t>
+          <t>(0.40855733435286945,)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(-0.0024183797591069483, 0.9741563007001042, 0.49225932938591166)</t>
+          <t>(0.40855733435286945, -0.16628158974401985, 1.2918907855265185)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F7531A3520&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A114FAE30&gt;</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1068,31 +1068,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>genextreme</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01190263394240583</v>
+        <v>0.1422716560288279</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.129655346638948</v>
+        <v>0.9607777830765321</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2770545148734982</v>
+        <v>0.435783736758008</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(5.010701348756763,)</t>
+          <t>(-0.058845534534951734,)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(5.010701348756763, -0.12965534663894798, 0.2770545148734982)</t>
+          <t>(-0.058845534534951734, 0.960777783076532, 0.43578373675800797)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F7531A3190&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A114FBE20&gt;</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1111,27 +1111,27 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01713598099282133</v>
+        <v>0.1476763530685482</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0953626552359856</v>
+        <v>-0.04319722935803139</v>
       </c>
       <c r="D5" t="n">
-        <v>11.79741943256502</v>
+        <v>7.415222427291281</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(4.209739753751401, 32.41840852529774)</t>
+          <t>(4.143674828998817, 19.695314573673528)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(4.209739753751401, 32.41840852529774, -0.0953626552359856, 11.797419432565022)</t>
+          <t>(4.143674828998817, 19.695314573673528, -0.04319722935803139, 7.415222427291281)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F7531A3A60&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03A47580&gt;</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1146,31 +1146,31 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>dweibull</t>
+          <t>norm</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.06339432830624532</v>
+        <v>0.2270875025779603</v>
       </c>
       <c r="C6" t="n">
-        <v>1.163150340202498</v>
+        <v>1.238776434379896</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5074795674384027</v>
+        <v>0.6080144533969359</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(1.188669497383525,)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(1.188669497383525, 1.1631503402024976, 0.5074795674384027)</t>
+          <t>(1.238776434379896, 0.6080144533969359)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F7531A1330&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03A445E0&gt;</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1185,31 +1185,31 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>loggamma</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.08656524913068836</v>
+        <v>0.2381516237316965</v>
       </c>
       <c r="C7" t="n">
-        <v>1.197118469913173</v>
+        <v>-203.3217181679148</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5117498851864085</v>
+        <v>27.18449606650914</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(5.93545115580574,)</t>
+          <t>(1854.358419406149,)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(5.93545115580574, 1.1971184699131734, 0.5117498851864085)</t>
+          <t>(1854.358419406149, -203.32171816791475, 27.18449606650914)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F75314C100&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A114F95D0&gt;</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1224,31 +1224,31 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>norm</t>
+          <t>dweibull</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1421603864790137</v>
+        <v>0.2626609255980988</v>
       </c>
       <c r="C8" t="n">
-        <v>1.258583574324748</v>
+        <v>1.192582919916241</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6349064904508969</v>
+        <v>0.4822203986019139</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(1.2157348695503898,)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(1.258583574324748, 0.6349064904508969)</t>
+          <t>(1.2157348695503898, 1.1925829199162405, 0.4822203986019139)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F75314EDD0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A114F8E50&gt;</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1263,31 +1263,31 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>loggamma</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.160276202751058</v>
+        <v>0.268094051274715</v>
       </c>
       <c r="C9" t="n">
-        <v>-213.4481581921585</v>
+        <v>1.162647295657097</v>
       </c>
       <c r="D9" t="n">
-        <v>28.55161141027356</v>
+        <v>0.4495097131537472</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(1844.8457096178818,)</t>
+          <t>(4.541096745001539,)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(1844.8457096178818, -213.44815819215853, 28.55161141027356)</t>
+          <t>(4.541096745001539, 1.1626472956570966, 0.44950971315374716)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F7531A1CF0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03A46B90&gt;</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1302,31 +1302,31 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>pareto</t>
+          <t>expon</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.114241242320803</v>
+        <v>0.7174638697500727</v>
       </c>
       <c r="C10" t="n">
-        <v>-134217727.9140025</v>
+        <v>0.2384579513771096</v>
       </c>
       <c r="D10" t="n">
-        <v>134217728</v>
+        <v>1.000318483002786</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>(114463011.18472727,)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(114463011.18472727, -134217727.91400246, 134217728.0)</t>
+          <t>(0.23845795137710957, 1.0003184830027863)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F75314FEE0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03A44FD0&gt;</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1341,31 +1341,31 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>expon</t>
+          <t>pareto</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.114241244860442</v>
+        <v>0.7174638815946845</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08599754348896971</v>
+        <v>-134217727.7615421</v>
       </c>
       <c r="D11" t="n">
-        <v>1.172586030835778</v>
+        <v>134217728</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(134174995.66964035,)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(0.08599754348896971, 1.1725860308357783)</t>
+          <t>(134174995.66964035, -134217727.76154205, 134217728.0)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F75314D9C0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03A46440&gt;</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1384,13 +1384,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.549210963817985</v>
+        <v>0.8759951840383996</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08599754348896971</v>
+        <v>0.2384579513771096</v>
       </c>
       <c r="D12" t="n">
-        <v>5.148013541538349</v>
+        <v>3.335898125482456</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1399,12 +1399,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(0.08599754348896971, 5.148013541538349)</t>
+          <t>(0.23845795137710957, 3.335898125482456)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F7531A1300&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A114F8280&gt;</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1494,27 +1494,27 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03565489156012801</v>
+        <v>0.02766231531819459</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1365099267265136</v>
+        <v>0.07551518510890026</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3975045864787248</v>
+        <v>0.2903269258778359</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(2.597303725558411,)</t>
+          <t>(3.9537374000607297,)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(2.597303725558411, 0.13650992672651363, 0.3975045864787248)</t>
+          <t>(3.9537374000607297, 0.07551518510890026, 0.29032692587783593)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F773209690&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03224970&gt;</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1534,27 +1534,27 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03638586524530826</v>
+        <v>0.02790896634604137</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1386548971937868</v>
+        <v>0.1377670171332342</v>
       </c>
       <c r="D3" t="n">
-        <v>1016924.565714905</v>
+        <v>9.688252606404554</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(2.563580845564173, 2526508.3069088)</t>
+          <t>(3.0756479811173243, 24.371029380990038)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(2.563580845564173, 2526508.3069088, 0.1386548971937868, 1016924.5657149048)</t>
+          <t>(3.0756479811173243, 24.371029380990038, 0.1377670171332342, 9.688252606404554)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F77320AB00&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03225CF0&gt;</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1570,31 +1570,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>genextreme</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03671650690557331</v>
+        <v>0.03236951698997086</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8609184708020057</v>
+        <v>-0.3458638632503171</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4508333205876186</v>
+        <v>1.471677605489991</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(-0.09907774985377722,)</t>
+          <t>(0.35945815277588633,)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(-0.09907774985377722, 0.8609184708020057, 0.4508333205876186)</t>
+          <t>(0.35945815277588633, -0.3458638632503171, 1.4716776054899907)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F77320BBB0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A032264A0&gt;</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1610,31 +1610,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>lognorm</t>
+          <t>genextreme</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03923514901226708</v>
+        <v>0.03761234743133555</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.123167067864211</v>
+        <v>0.9618123669229623</v>
       </c>
       <c r="D5" t="n">
-        <v>1.1500820651525</v>
+        <v>0.4508219805888988</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(0.4843732453049939,)</t>
+          <t>(2.0124887494101205e-05,)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(0.4843732453049939, -0.12316706786421099, 1.1500820651524999)</t>
+          <t>(2.0124887494101205e-05, 0.9618123669229623, 0.4508219805888988)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F773209960&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03226020&gt;</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1654,27 +1654,27 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1319823356055891</v>
+        <v>0.1080831140404776</v>
       </c>
       <c r="C6" t="n">
-        <v>1.080177705709482</v>
+        <v>1.17370226638033</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4942140732078314</v>
+        <v>0.4919979193940579</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(4.808398128243059,)</t>
+          <t>(7.284163731173971,)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(4.808398128243059, 1.0801777057094823, 0.4942140732078314)</t>
+          <t>(7.284163731173971, 1.1737022663803303, 0.4919979193940579)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F773208BB0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A032250C0&gt;</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1690,31 +1690,31 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>dweibull</t>
+          <t>norm</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1751526965408256</v>
+        <v>0.1232464080835323</v>
       </c>
       <c r="C7" t="n">
-        <v>1.088980047633877</v>
+        <v>1.223394924843999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5110921798863296</v>
+        <v>0.5734404944413067</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(1.1758112668608884,)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(1.1758112668608884, 1.0889800476338771, 0.5110921798863296)</t>
+          <t>(1.223394924843999, 0.5734404944413067)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F77320AD10&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A031A2830&gt;</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1730,31 +1730,31 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>norm</t>
+          <t>loggamma</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.227483441855488</v>
+        <v>0.1255932132837028</v>
       </c>
       <c r="C8" t="n">
-        <v>1.16895095696035</v>
+        <v>-187.6493987688746</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6596308080033757</v>
+        <v>25.17723844835223</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(1811.3823302643004,)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(1.16895095696035, 0.6596308080033757)</t>
+          <t>(1811.3823302643004, -187.64939876887456, 25.177238448352227)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F773208DF0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03227910&gt;</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1770,31 +1770,31 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>loggamma</t>
+          <t>dweibull</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2343449260102827</v>
+        <v>0.1385008073621143</v>
       </c>
       <c r="C9" t="n">
-        <v>-208.4946376822285</v>
+        <v>1.173295268380901</v>
       </c>
       <c r="D9" t="n">
-        <v>28.07154682090482</v>
+        <v>0.4681232324941331</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(1752.9412796055442,)</t>
+          <t>(1.1868043300590285,)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(1752.9412796055442, -208.4946376822285, 28.071546820904825)</t>
+          <t>(1.1868043300590285, 1.1732952683809015, 0.4681232324941331)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F77320A7D0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A031A04C0&gt;</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1814,27 +1814,27 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7528788080890058</v>
+        <v>0.5718897295857186</v>
       </c>
       <c r="C10" t="n">
-        <v>-134217727.8321525</v>
+        <v>-134217727.7366972</v>
       </c>
       <c r="D10" t="n">
-        <v>134217728</v>
+        <v>134217727.9999999</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>(134069786.39593096,)</t>
+          <t>(139796706.1709846,)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(134069786.39593096, -134217727.83215252, 134217728.0)</t>
+          <t>(139796706.1709846, -134217727.73669723, 134217727.99999994)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F77320B3D0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A031A1270&gt;</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1854,13 +1854,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7528788306181018</v>
+        <v>0.5718897346653947</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1678474902995616</v>
+        <v>0.2633027203835263</v>
       </c>
       <c r="D11" t="n">
-        <v>1.001103466660789</v>
+        <v>0.9600922044604727</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1869,12 +1869,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(0.16784749029956156, 1.0011034666607885)</t>
+          <t>(0.26330272038352626, 0.9600922044604727)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F77320B1F0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A031A23B0&gt;</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1894,13 +1894,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.759792863261879</v>
+        <v>0.6229811069670546</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1678474902995616</v>
+        <v>0.2633027203835263</v>
       </c>
       <c r="D12" t="n">
-        <v>5.893171691679761</v>
+        <v>2.765244146146241</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1909,12 +1909,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(0.16784749029956156, 5.893171691679761)</t>
+          <t>(0.26330272038352626, 2.765244146146241)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000001F77320A0B0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03225180&gt;</t>
         </is>
       </c>
       <c r="H12" t="n">

--- a/Imag/fgm/resultados.xlsx
+++ b/Imag/fgm/resultados.xlsx
@@ -490,31 +490,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.04679176686782389</v>
+        <v>0.09251536378179645</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2239671065721148</v>
+        <v>0.2806468485153529</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4267370972690093</v>
+        <v>0.7317527957587506</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(2.3814677481780855,)</t>
+          <t>(0.4897263827737177,)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(2.3814677481780855, 0.22396710657211483, 0.42673709726900927)</t>
+          <t>(0.4897263827737177, 0.28064684851535293, 0.7317527957587506)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A1176E620&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F265F4A260&gt;</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -529,31 +529,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>beta</t>
+          <t>genextreme</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04846593277568847</v>
+        <v>0.09756403251232001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3082312302862353</v>
+        <v>0.9014305796764368</v>
       </c>
       <c r="D3" t="n">
-        <v>3.404691665210418</v>
+        <v>0.2835076953763651</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(1.316635243529749, 3.5062612390779773)</t>
+          <t>(-0.13061449337304026,)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(1.316635243529749, 3.5062612390779773, 0.30823123028623534, 3.404691665210418)</t>
+          <t>(-0.13061449337304026, 0.9014305796764368, 0.2835076953763651)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A1176FE50&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2660683A0&gt;</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -568,31 +568,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>lognorm</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06829544601326309</v>
+        <v>0.1598648280674868</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.28805358374032</v>
+        <v>0.3859866231392542</v>
       </c>
       <c r="D4" t="n">
-        <v>1.409969218469108</v>
+        <v>0.2291716823093218</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(0.4057957658951769,)</t>
+          <t>(3.141699549106124,)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(0.4057957658951769, -0.28805358374032003, 1.4099692184691077)</t>
+          <t>(3.141699549106124, 0.38598662313925425, 0.22917168230932178)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A1176D6F0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F21311E920&gt;</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -607,31 +607,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>genextreme</t>
+          <t>beta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08237470588555697</v>
+        <v>0.1674959631645393</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9551745974744452</v>
+        <v>0.3880391941143873</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4880054793026742</v>
+        <v>295578911162.8331</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(-0.0014530660569484464,)</t>
+          <t>(3.0627349884818305, 1256940351968.09)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(-0.0014530660569484464, 0.9551745974744452, 0.48800547930267424)</t>
+          <t>(3.0627349884818305, 1256940351968.09, 0.38803919411438725, 295578911162.83307)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A1176D570&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2132B0DF0&gt;</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -650,27 +650,27 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1168139754420424</v>
+        <v>0.6285347389225193</v>
       </c>
       <c r="C6" t="n">
-        <v>1.178237531880076</v>
+        <v>1.022584537931305</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5384667559955931</v>
+        <v>0.3222393880503716</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(1.3539866392456816,)</t>
+          <t>(1.0963633623627853,)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(1.3539866392456816, 1.1782375318800757, 0.5384667559955931)</t>
+          <t>(1.0963633623627853, 1.022584537931305, 0.32223938805037156)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A1176C640&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26606BBB0&gt;</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -685,31 +685,31 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>norm</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1607444356231474</v>
+        <v>0.6304728618765736</v>
       </c>
       <c r="C7" t="n">
-        <v>1.240224037876541</v>
+        <v>1.026848383824493</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6146880245031469</v>
+        <v>0.2999285931836568</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(3.6453828151865166,)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(1.2402240378765406, 0.6146880245031469)</t>
+          <t>(3.6453828151865166, 1.0268483838244928, 0.29992859318365683)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A1176DFF0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F21311CEB0&gt;</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -724,31 +724,31 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>norm</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.160849065145841</v>
+        <v>1.14236788656759</v>
       </c>
       <c r="C8" t="n">
-        <v>1.223333863738669</v>
+        <v>1.105975349655882</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5889269286699567</v>
+        <v>0.4309622974536072</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>(24.30740708902836,)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(24.30740708902836, 1.2233338637386693, 0.5889269286699567)</t>
+          <t>(1.1059753496558815, 0.4309622974536072)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A1176CFD0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F21311E9E0&gt;</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -767,27 +767,27 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1624277535410654</v>
+        <v>1.175732583322094</v>
       </c>
       <c r="C9" t="n">
-        <v>-210.3489627235128</v>
+        <v>-168.4388732951011</v>
       </c>
       <c r="D9" t="n">
-        <v>27.78785469106813</v>
+        <v>21.73424070567025</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(2027.7067172502575,)</t>
+          <t>(2442.8611182375007,)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(2027.7067172502575, -210.34896272351284, 27.787854691068134)</t>
+          <t>(2442.8611182375007, -168.43887329510113, 21.734240705670253)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A1176D9C0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2132B3E20&gt;</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -806,13 +806,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2169243257474388</v>
+        <v>3.630849658271591</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3175720422019507</v>
+        <v>0.4007339991203802</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9226519956745898</v>
+        <v>0.7052413505355013</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -821,12 +821,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(0.31757204220195073, 0.9226519956745898)</t>
+          <t>(0.40073399912038016, 0.7052413505355013)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A1176CE50&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26606A890&gt;</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -845,27 +845,27 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2169243289542118</v>
+        <v>3.630849681873678</v>
       </c>
       <c r="C11" t="n">
-        <v>-67108863.68242796</v>
+        <v>-67108863.599266</v>
       </c>
       <c r="D11" t="n">
         <v>67108863.99999999</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>(72734752.66991387,)</t>
+          <t>(95157302.55860871,)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(72734752.66991387, -67108863.68242796, 67108863.99999999)</t>
+          <t>(95157302.55860871, -67108863.599266, 67108863.99999999)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A1176DC00&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F21311E620&gt;</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -884,13 +884,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4813624462710696</v>
+        <v>5.782827269531599</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3175720422019507</v>
+        <v>0.4007339991203802</v>
       </c>
       <c r="D12" t="n">
-        <v>2.852477340539932</v>
+        <v>3.531363540107213</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -899,12 +899,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(0.31757204220195073, 2.852477340539932)</t>
+          <t>(0.40073399912038016, 3.5313635401072125)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A1176F3A0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F265F4AA70&gt;</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -990,31 +990,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>genextreme</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1273767485462026</v>
+        <v>0.06969254115983886</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1201267511124081</v>
+        <v>0.9037951278111662</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3061999935498383</v>
+        <v>0.2761890240850409</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(3.6533233395577183,)</t>
+          <t>(-0.16216209970297463,)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(3.6533233395577183, 0.12012675111240814, 0.3061999935498383)</t>
+          <t>(-0.16216209970297463, 0.9037951278111662, 0.27618902408504087)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A114FA770&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F212F98790&gt;</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1033,27 +1033,27 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1317893886099593</v>
+        <v>0.09373835807553096</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1662815897440199</v>
+        <v>0.3475620755314078</v>
       </c>
       <c r="D3" t="n">
-        <v>1.291890785526518</v>
+        <v>0.6638588230471482</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(0.40855733435286945,)</t>
+          <t>(0.5352309788425158,)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(0.40855733435286945, -0.16628158974401985, 1.2918907855265185)</t>
+          <t>(0.5352309788425158, 0.34756207553140783, 0.6638588230471482)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A114FAE30&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F212F99480&gt;</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1068,31 +1068,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>genextreme</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1422716560288279</v>
+        <v>0.1909925276756819</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9607777830765321</v>
+        <v>0.4525975669905019</v>
       </c>
       <c r="D4" t="n">
-        <v>0.435783736758008</v>
+        <v>0.2608863575140697</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(-0.058845534534951734,)</t>
+          <t>(2.537224256427495,)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(-0.058845534534951734, 0.960777783076532, 0.43578373675800797)</t>
+          <t>(2.537224256427495, 0.4525975669905019, 0.26088635751406974)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A114FBE20&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F21322A6E0&gt;</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1111,27 +1111,27 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1476763530685482</v>
+        <v>0.1943294863677814</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.04319722935803139</v>
+        <v>0.452916153466695</v>
       </c>
       <c r="D5" t="n">
-        <v>7.415222427291281</v>
+        <v>732317041127.9006</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(4.143674828998817, 19.695314573673528)</t>
+          <t>(2.5228323891324465, 2789802192601.4463)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(4.143674828998817, 19.695314573673528, -0.04319722935803139, 7.415222427291281)</t>
+          <t>(2.5228323891324465, 2789802192601.4463, 0.452916153466695, 732317041127.9006)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03A47580&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2000FFB20&gt;</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1146,31 +1146,31 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>norm</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2270875025779603</v>
+        <v>0.5735323537382032</v>
       </c>
       <c r="C6" t="n">
-        <v>1.238776434379896</v>
+        <v>1.019674571557795</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6080144533969359</v>
+        <v>0.283167839617915</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(3.082340138651257,)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(1.238776434379896, 0.6080144533969359)</t>
+          <t>(3.082340138651257, 1.019674571557795, 0.283167839617915)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03A445E0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F20001CD30&gt;</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1185,31 +1185,31 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>loggamma</t>
+          <t>dweibull</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2381516237316965</v>
+        <v>0.6187584581045422</v>
       </c>
       <c r="C7" t="n">
-        <v>-203.3217181679148</v>
+        <v>1.012022049700162</v>
       </c>
       <c r="D7" t="n">
-        <v>27.18449606650914</v>
+        <v>0.3126965905790773</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(1854.358419406149,)</t>
+          <t>(1.0198276019376176,)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(1854.358419406149, -203.32171816791475, 27.18449606650914)</t>
+          <t>(1.0198276019376176, 1.0120220497001617, 0.31269659057907734)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A114F95D0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F212F98F70&gt;</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1224,31 +1224,31 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>dweibull</t>
+          <t>norm</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2626609255980988</v>
+        <v>1.408989561556657</v>
       </c>
       <c r="C8" t="n">
-        <v>1.192582919916241</v>
+        <v>1.114523918970242</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4822203986019139</v>
+        <v>0.4513000546565478</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>(1.2157348695503898,)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(1.2157348695503898, 1.1925829199162405, 0.4822203986019139)</t>
+          <t>(1.1145239189702425, 0.45130005465654777)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A114F8E50&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2132B02E0&gt;</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1263,31 +1263,31 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>loggamma</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.268094051274715</v>
+        <v>1.509319833188615</v>
       </c>
       <c r="C9" t="n">
-        <v>1.162647295657097</v>
+        <v>-153.0382192828993</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4495097131537472</v>
+        <v>20.45976526965001</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(4.541096745001539,)</t>
+          <t>(1871.8015600502522,)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(4.541096745001539, 1.1626472956570966, 0.44950971315374716)</t>
+          <t>(1871.8015600502522, -153.03821928289926, 20.459765269650013)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03A46B90&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26606B040&gt;</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1306,13 +1306,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7174638697500727</v>
+        <v>3.203230385601561</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2384579513771096</v>
+        <v>0.4609107158823683</v>
       </c>
       <c r="D10" t="n">
-        <v>1.000318483002786</v>
+        <v>0.6536132030878742</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1321,12 +1321,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(0.23845795137710957, 1.0003184830027863)</t>
+          <t>(0.4609107158823683, 0.6536132030878742)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03A44FD0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F213228640&gt;</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1345,27 +1345,27 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7174638815946845</v>
+        <v>3.203230444973406</v>
       </c>
       <c r="C11" t="n">
-        <v>-134217727.7615421</v>
+        <v>-33554431.53908928</v>
       </c>
       <c r="D11" t="n">
-        <v>134217728</v>
+        <v>33554432</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>(134174995.66964035,)</t>
+          <t>(51336833.90762875,)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(134174995.66964035, -134217727.76154205, 134217728.0)</t>
+          <t>(51336833.90762875, -33554431.539089285, 33554432.0)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03A46440&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F21322A830&gt;</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1384,13 +1384,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8759951840383996</v>
+        <v>6.949660145828141</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2384579513771096</v>
+        <v>0.4609107158823683</v>
       </c>
       <c r="D12" t="n">
-        <v>3.335898125482456</v>
+        <v>4.611346419811895</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1399,12 +1399,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(0.23845795137710957, 3.335898125482456)</t>
+          <t>(0.4609107158823683, 4.611346419811895)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A114F8280&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2000FF460&gt;</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1494,27 +1494,27 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02766231531819459</v>
+        <v>0.07832082906902976</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07551518510890026</v>
+        <v>0.4045143423595011</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2903269258778359</v>
+        <v>0.2293516438748527</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(3.9537374000607297,)</t>
+          <t>(3.0534125145680733,)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(3.9537374000607297, 0.07551518510890026, 0.29032692587783593)</t>
+          <t>(3.0534125145680733, 0.4045143423595011, 0.22935164387485274)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03224970&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2144AD390&gt;</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1534,27 +1534,27 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02790896634604137</v>
+        <v>0.08058257470376523</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1377670171332342</v>
+        <v>0.4072801467500877</v>
       </c>
       <c r="D3" t="n">
-        <v>9.688252606404554</v>
+        <v>19.86399655907722</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(3.0756479811173243, 24.371029380990038)</t>
+          <t>(2.922388853773005, 80.2736488001494)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(3.0756479811173243, 24.371029380990038, 0.1377670171332342, 9.688252606404554)</t>
+          <t>(2.922388853773005, 80.2736488001494, 0.4072801467500877, 19.863996559077222)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03225CF0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2143F7D00&gt;</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1574,27 +1574,27 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03236951698997086</v>
+        <v>0.1014571067337262</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.3458638632503171</v>
+        <v>0.2767670058197931</v>
       </c>
       <c r="D4" t="n">
-        <v>1.471677605489991</v>
+        <v>0.7384170233182508</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(0.35945815277588633,)</t>
+          <t>(0.48190099210174314,)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(0.35945815277588633, -0.3458638632503171, 1.4716776054899907)</t>
+          <t>(0.48190099210174314, 0.27676700581979313, 0.7384170233182508)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A032264A0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2143F71F0&gt;</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1614,27 +1614,27 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03761234743133555</v>
+        <v>0.156327353787047</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9618123669229623</v>
+        <v>0.9074006559928648</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4508219805888988</v>
+        <v>0.2868222633999027</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(2.0124887494101205e-05,)</t>
+          <t>(-0.10419797183653852,)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(2.0124887494101205e-05, 0.9618123669229623, 0.4508219805888988)</t>
+          <t>(-0.10419797183653852, 0.9074006559928648, 0.2868222633999027)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03226020&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2143F48B0&gt;</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1650,31 +1650,31 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>dweibull</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1080831140404776</v>
+        <v>0.6112184056482957</v>
       </c>
       <c r="C6" t="n">
-        <v>1.17370226638033</v>
+        <v>1.045978940887937</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4919979193940579</v>
+        <v>0.3306002623491847</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(7.284163731173971,)</t>
+          <t>(1.19365196892233,)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(7.284163731173971, 1.1737022663803303, 0.4919979193940579)</t>
+          <t>(1.19365196892233, 1.0459789408879372, 0.33060026234918466)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A032250C0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F21322B8B0&gt;</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1690,31 +1690,31 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>norm</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1232464080835323</v>
+        <v>0.655650109187487</v>
       </c>
       <c r="C7" t="n">
-        <v>1.223394924843999</v>
+        <v>1.056421547415768</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5734404944413067</v>
+        <v>0.3334347415076014</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(5.960785491051903,)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(1.223394924843999, 0.5734404944413067)</t>
+          <t>(5.960785491051903, 1.0564215474157677, 0.33343474150760144)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A031A2830&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26606B580&gt;</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1730,31 +1730,31 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>loggamma</t>
+          <t>norm</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1255932132837028</v>
+        <v>0.8051404639293518</v>
       </c>
       <c r="C8" t="n">
-        <v>-187.6493987688746</v>
+        <v>1.104822422409923</v>
       </c>
       <c r="D8" t="n">
-        <v>25.17723844835223</v>
+        <v>0.4089791138825862</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>(1811.3823302643004,)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(1811.3823302643004, -187.64939876887456, 25.177238448352227)</t>
+          <t>(1.104822422409923, 0.40897911388258623)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03227910&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2144AFAF0&gt;</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1770,31 +1770,31 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>dweibull</t>
+          <t>loggamma</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1385008073621143</v>
+        <v>0.8376607012587352</v>
       </c>
       <c r="C9" t="n">
-        <v>1.173295268380901</v>
+        <v>-143.9392801028914</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4681232324941331</v>
+        <v>18.96444914013226</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(1.1868043300590285,)</t>
+          <t>(2097.617607229681,)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(1.1868043300590285, 1.1732952683809015, 0.4681232324941331)</t>
+          <t>(2097.617607229681, -143.93928010289142, 18.96444914013226)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A031A04C0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2143F7F40&gt;</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1814,27 +1814,27 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5718897295857186</v>
+        <v>2.866112482773097</v>
       </c>
       <c r="C10" t="n">
-        <v>-134217727.7366972</v>
+        <v>-134217727.5743582</v>
       </c>
       <c r="D10" t="n">
-        <v>134217727.9999999</v>
+        <v>134217728</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>(139796706.1709846,)</t>
+          <t>(197617149.02084002,)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(139796706.1709846, -134217727.73669723, 134217727.99999994)</t>
+          <t>(197617149.02084002, -134217727.57435815, 134217728.0)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A031A1270&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2144AFB20&gt;</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1854,13 +1854,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5718897346653947</v>
+        <v>2.866112515585188</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2633027203835263</v>
+        <v>0.4256418527483496</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9600922044604727</v>
+        <v>0.6791805696615734</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1869,12 +1869,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(0.26330272038352626, 0.9600922044604727)</t>
+          <t>(0.42564185274834965, 0.6791805696615734)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A031A23B0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2143F7FA0&gt;</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1894,13 +1894,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6229811069670546</v>
+        <v>4.302789736649089</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2633027203835263</v>
+        <v>0.4256418527483496</v>
       </c>
       <c r="D12" t="n">
-        <v>2.765244146146241</v>
+        <v>2.669249325175244</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1909,12 +1909,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(0.26330272038352626, 2.765244146146241)</t>
+          <t>(0.42564185274834965, 2.669249325175244)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x0000014A03225180&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2143F5E70&gt;</t>
         </is>
       </c>
       <c r="H12" t="n">

--- a/Imag/fgm/resultados.xlsx
+++ b/Imag/fgm/resultados.xlsx
@@ -7,9 +7,18 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="weak" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="moderate" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="strong" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="50_weak" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="50_moderate" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="50_strong" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="100_weak" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="100_moderate" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="100_strong" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="500_weak" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="500_moderate" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="500_strong" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="1000_weak" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="1000_moderate" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="1000_strong" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -490,31 +499,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>lognorm</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.09251536378179645</v>
+        <v>0.03249654653940669</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2806468485153529</v>
+        <v>0.4012408637208555</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7317527957587506</v>
+        <v>0.3914749979814099</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(0.4897263827737177,)</t>
+          <t>(2.674981552189408,)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(0.4897263827737177, 0.28064684851535293, 0.7317527957587506)</t>
+          <t>(2.674981552189408, 0.40124086372085555, 0.3914749979814099)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F265F4A260&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FAAA6410&gt;</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -529,31 +538,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>genextreme</t>
+          <t>beta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09756403251232001</v>
+        <v>0.0333621276910842</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9014305796764368</v>
+        <v>0.404759287394332</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2835076953763651</v>
+        <v>27.63298577254007</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(-0.13061449337304026,)</t>
+          <t>(2.5598491879848457, 65.21528492207926)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(-0.13061449337304026, 0.9014305796764368, 0.2835076953763651)</t>
+          <t>(2.5598491879848457, 65.21528492207926, 0.404759287394332, 27.632985772540074)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2660683A0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FAAA6980&gt;</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -568,31 +577,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1598648280674868</v>
+        <v>0.04042702903915032</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3859866231392542</v>
+        <v>0.1609748057089239</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2291716823093218</v>
+        <v>1.144111013421231</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(3.141699549106124,)</t>
+          <t>(0.4911978871516326,)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(3.141699549106124, 0.38598662313925425, 0.22917168230932178)</t>
+          <t>(0.4911978871516326, 0.16097480570892392, 1.1441110134212307)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F21311E920&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FAAA6080&gt;</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -607,31 +616,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>beta</t>
+          <t>genextreme</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1674959631645393</v>
+        <v>0.05567696141234107</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3880391941143873</v>
+        <v>1.138480083654361</v>
       </c>
       <c r="D5" t="n">
-        <v>295578911162.8331</v>
+        <v>0.4549539414027658</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(3.0627349884818305, 1256940351968.09)</t>
+          <t>(-0.09811465503795652,)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(3.0627349884818305, 1256940351968.09, 0.38803919411438725, 295578911162.83307)</t>
+          <t>(-0.09811465503795652, 1.1384800836543612, 0.4549539414027658)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2132B0DF0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FAAA6500&gt;</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -646,31 +655,31 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>dweibull</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6285347389225193</v>
+        <v>0.2773434745922305</v>
       </c>
       <c r="C6" t="n">
-        <v>1.022584537931305</v>
+        <v>1.386136544126683</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3222393880503716</v>
+        <v>0.547578488472921</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(1.0963633623627853,)</t>
+          <t>(7.539165306715192,)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(1.0963633623627853, 1.022584537931305, 0.32223938805037156)</t>
+          <t>(7.539165306715192, 1.3861365441266833, 0.547578488472921)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26606BBB0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FAAA5E70&gt;</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -685,31 +694,31 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>dweibull</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6304728618765736</v>
+        <v>0.2940279803431948</v>
       </c>
       <c r="C7" t="n">
-        <v>1.026848383824493</v>
+        <v>1.444971979415013</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2999285931836568</v>
+        <v>0.5498866631170813</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(3.6453828151865166,)</t>
+          <t>(1.3379092776798602,)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(3.6453828151865166, 1.0268483838244928, 0.29992859318365683)</t>
+          <t>(1.3379092776798602, 1.4449719794150129, 0.5498866631170813)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F21311CEB0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FAAA6D10&gt;</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -728,13 +737,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.14236788656759</v>
+        <v>0.3275859982286144</v>
       </c>
       <c r="C8" t="n">
-        <v>1.105975349655882</v>
+        <v>1.44843368303273</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4309622974536072</v>
+        <v>0.6364862979508585</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -743,12 +752,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(1.1059753496558815, 0.4309622974536072)</t>
+          <t>(1.44843368303273, 0.6364862979508585)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F21311E9E0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FAAA7880&gt;</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -767,27 +776,27 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.175732583322094</v>
+        <v>0.3333392717459564</v>
       </c>
       <c r="C9" t="n">
-        <v>-168.4388732951011</v>
+        <v>-188.9633786259683</v>
       </c>
       <c r="D9" t="n">
-        <v>21.73424070567025</v>
+        <v>25.87595541214067</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(2442.8611182375007,)</t>
+          <t>(1570.07653773534,)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(2442.8611182375007, -168.43887329510113, 21.734240705670253)</t>
+          <t>(1570.07653773534, -188.9633786259683, 25.87595541214067)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2132B3E20&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FAAA7490&gt;</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -806,13 +815,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.630849658271591</v>
+        <v>0.9815405973918868</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4007339991203802</v>
+        <v>0.4212432233377272</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7052413505355013</v>
+        <v>1.027190459695003</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -821,12 +830,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(0.40073399912038016, 0.7052413505355013)</t>
+          <t>(0.4212432233377272, 1.0271904596950028)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26606A890&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FAAA71F0&gt;</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -845,27 +854,27 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.630849681873678</v>
+        <v>0.9815406315200254</v>
       </c>
       <c r="C11" t="n">
-        <v>-67108863.599266</v>
+        <v>-134217727.5787568</v>
       </c>
       <c r="D11" t="n">
-        <v>67108863.99999999</v>
+        <v>134217728</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>(95157302.55860871,)</t>
+          <t>(130664889.91754572,)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(95157302.55860871, -67108863.599266, 67108863.99999999)</t>
+          <t>(130664889.91754572, -134217727.57875678, 134217728.0)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F21311E620&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FAAA61A0&gt;</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -884,13 +893,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.782827269531599</v>
+        <v>1.45511267606535</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4007339991203802</v>
+        <v>0.4212432233377272</v>
       </c>
       <c r="D12" t="n">
-        <v>3.531363540107213</v>
+        <v>3.627892423710269</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -899,17 +908,1528 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(0.40073399912038016, 3.5313635401072125)</t>
+          <t>(0.4212432233377272, 3.627892423710269)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F265F4AA70&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FAAA5FC0&gt;</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>arg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_pass</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.07244470770787924</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.354534280461673</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.660316238491844</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>(0.526494038239341,)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(0.526494038239341, 0.35453428046167296, 0.660316238491844)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FAC1A530&gt;</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>genextreme</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.09428398376913674</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9072708905037364</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2699861208933377</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(-0.16463656412559596,)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(-0.16463656412559596, 0.9072708905037364, 0.26998612089333773)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FAC19690&gt;</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1790520097903315</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4303346554602159</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2556.609054241974</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>(2.941908250699595, 11027.620181840088)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(2.941908250699595, 11027.620181840088, 0.4303346554602159, 2556.6090542419743)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FAC1A4D0&gt;</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>#377eb8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1799935389515713</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4305449294718829</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2318896998046679</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(2.9420902656309345,)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(2.9420902656309345, 0.43054492947188294, 0.23188969980466795)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000161C5B4BAF0&gt;</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>#4daf4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7620323291224976</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.027567128644793</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2932585963500512</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(3.4950385080828363,)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(3.4950385080828363, 1.027567128644793, 0.2932585963500512)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000161C5B4AFB0&gt;</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>#984ea3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>dweibull</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8311026908181475</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.030825988916554</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3171102229548629</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(1.0909649969167108,)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(1.0909649969167108, 1.030825988916554, 0.3171102229548629)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA74BCD0&gt;</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>#ff7f00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>norm</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.400269954336634</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.112788835935622</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4211773215885324</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(1.112788835935622, 0.42117732158853244)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA829810&gt;</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>#ffff33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loggamma</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1.441836152629541</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-191.2161161783226</v>
+      </c>
+      <c r="D9" t="n">
+        <v>23.96057851580827</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(3062.5467087219395,)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(3062.5467087219395, -191.21611617832264, 23.960578515808272)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FAC1BA60&gt;</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>#a65628</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pareto</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3.609794283574539</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-134217727.5601906</v>
+      </c>
+      <c r="D10" t="n">
+        <v>134217728</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>(199438073.1179407,)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(199438073.1179407, -134217727.56019063, 134217727.99999999)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000161C5B76200&gt;</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>#f781bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>expon</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.609794411267812</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.439809364916775</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6729794710188469</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(0.439809364916775, 0.6729794710188469)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA74BE20&gt;</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5.632425650236768</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.439809364916775</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.917154877440113</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(0.439809364916775, 2.9171548774401126)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FAC19960&gt;</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>arg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_pass</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>genextreme</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.06996737783411949</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9101027169258737</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.273266529165645</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>(-0.1515601014433151,)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(-0.1515601014433151, 0.9101027169258737, 0.273266529165645)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA484820&gt;</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.09451445724868265</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3356222331706413</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6826890048047941</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(0.5123459234064083,)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(0.5123459234064083, 0.33562223317064127, 0.6826890048047941)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA485810&gt;</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.228352935180854</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4362332396345281</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2372530058938135</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>(2.8571858310217015,)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(2.8571858310217015, 0.4362332396345281, 0.23725300589381348)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA6B8730&gt;</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>#377eb8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2291432791189484</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4364129558131722</v>
+      </c>
+      <c r="D5" t="n">
+        <v>362741497380.9277</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(2.850775667919245, 1525444275570.761)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(2.850775667919245, 1525444275570.761, 0.4364129558131722, 362741497380.92773)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA486740&gt;</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>#4daf4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7715564511157602</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.02611309974729</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2902795585053001</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(3.3803281974035353,)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(3.3803281974035353, 1.0261130997472905, 0.2902795585053001)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA6B9BD0&gt;</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>#984ea3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>dweibull</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.824828579549877</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.026466866963672</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3168795596989021</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(1.0885060555884596,)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(1.0885060555884596, 1.026466866963672, 0.31687955969890214)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA6BA7D0&gt;</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>#ff7f00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>norm</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.476956609272436</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.11411061336365</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4223758963762268</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(1.1141106133636505, 0.4223758963762268)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA98B970&gt;</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>#ffff33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loggamma</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1.548751587776815</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-137.9082400483963</v>
+      </c>
+      <c r="D9" t="n">
+        <v>18.5340137934455</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(1810.3789010585192,)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(1810.3789010585192, -137.9082400483963, 18.534013793445503)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA486440&gt;</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>#a65628</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pareto</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3.595868893274045</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-67108863.55019728</v>
+      </c>
+      <c r="D10" t="n">
+        <v>67108863.99999999</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>(101020724.0351935,)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(101020724.0351935, -67108863.55019728, 67108863.99999999)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FAD6F6D0&gt;</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>#f781bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>expon</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.595868957496023</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4498027181468922</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6643078952167583</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(0.44980271814689216, 0.6643078952167583)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FAD6F670&gt;</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5.832794361023069</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4498027181468922</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3.030602039692838</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(0.44980271814689216, 3.0306020396928384)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA486BF0&gt;</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>arg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_pass</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>genextreme</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.08987519840687033</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9063241475727086</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2730041589029379</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>(-0.14080850157463853,)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(-0.14080850157463853, 0.9063241475727086, 0.27300415890293794)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA579780&gt;</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.09073217529016468</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3376388227088881</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6741223282613785</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(0.5138534896770179,)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(0.5138534896770179, 0.33763882270888806, 0.6741223282613785)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA5798D0&gt;</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1863439244359682</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4531348013996001</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2430002415510455</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>(2.687302317638391,)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(2.687302317638391, 0.4531348013996001, 0.2430002415510455)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA57AC50&gt;</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>#377eb8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1968170849493923</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4553596346739242</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20739060893.28306</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(2.6086501978426595, 82779490594.62668)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(2.6086501978426595, 82779490594.62668, 0.45535963467392415, 20739060893.28306)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA57B880&gt;</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>#4daf4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>dweibull</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7715541436689251</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.016731501658333</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3096285488098087</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(1.066608720641868,)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(1.066608720641868, 1.0167315016583327, 0.3096285488098087)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA57B670&gt;</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>#984ea3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8202107267978089</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.031832832871224</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3006425923927435</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(3.955605652235319,)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(3.955605652235319, 1.0318328328712238, 0.3006425923927435)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA578670&gt;</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>#ff7f00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>norm</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.391496617503495</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.106146900719865</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4121894876404557</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(1.1061469007198645, 0.41218948764045565)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA579750&gt;</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>#ffff33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loggamma</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1.440948039612594</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-171.7836257223598</v>
+      </c>
+      <c r="D9" t="n">
+        <v>21.98206065360679</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(2604.850521161152,)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(2604.850521161152, -171.78362572235977, 21.982060653606794)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA578A90&gt;</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>#a65628</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pareto</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3.36612054130656</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-134217727.5348077</v>
+      </c>
+      <c r="D10" t="n">
+        <v>134217728</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>(209402849.63583967,)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(209402849.63583967, -134217727.53480774, 134217728.0)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA57A830&gt;</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>#f781bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>expon</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.36612061738217</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4651922597873374</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6409546409325272</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(0.46519225978733736, 0.6409546409325272)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA57B220&gt;</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5.659010108606459</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4651922597873374</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.836410284745695</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(0.46519225978733736, 2.8364102847456953)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA57AB90&gt;</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
           <t>#999999</t>
@@ -990,31 +2510,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>genextreme</t>
+          <t>beta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.06969254115983886</v>
+        <v>0.01679377580075807</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9037951278111662</v>
+        <v>0.429110833371106</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2761890240850409</v>
+        <v>22.01995743464505</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(-0.16216209970297463,)</t>
+          <t>(2.573044191862925, 53.05999188195294)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(-0.16216209970297463, 0.9037951278111662, 0.27618902408504087)</t>
+          <t>(2.573044191862925, 53.05999188195294, 0.429110833371106, 22.01995743464505)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F212F98790&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E4FF6C50&gt;</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1029,31 +2549,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>lognorm</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09373835807553096</v>
+        <v>0.01758691484717634</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3475620755314078</v>
+        <v>0.4230749184064323</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6638588230471482</v>
+        <v>0.375301751513912</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(0.5352309788425158,)</t>
+          <t>(2.729700796553038,)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(0.5352309788425158, 0.34756207553140783, 0.6638588230471482)</t>
+          <t>(2.729700796553038, 0.4230749184064323, 0.375301751513912)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F212F99480&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF8791B0&gt;</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1068,31 +2588,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1909925276756819</v>
+        <v>0.03245715409985676</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4525975669905019</v>
+        <v>0.1570482081742677</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2608863575140697</v>
+        <v>1.156956068043708</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(2.537224256427495,)</t>
+          <t>(0.4719019072980862,)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(2.537224256427495, 0.4525975669905019, 0.26088635751406974)</t>
+          <t>(0.4719019072980862, 0.15704820817426768, 1.1569560680437077)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F21322A6E0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E50A1420&gt;</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1107,31 +2627,31 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>beta</t>
+          <t>genextreme</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1943294863677814</v>
+        <v>0.04575472117151755</v>
       </c>
       <c r="C5" t="n">
-        <v>0.452916153466695</v>
+        <v>1.151733149347725</v>
       </c>
       <c r="D5" t="n">
-        <v>732317041127.9006</v>
+        <v>0.4460419012163268</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(2.5228323891324465, 2789802192601.4463)</t>
+          <t>(-0.08107462798411408,)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(2.5228323891324465, 2789802192601.4463, 0.452916153466695, 732317041127.9006)</t>
+          <t>(-0.08107462798411408, 1.1517331493477254, 0.4460419012163268)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2000FFB20&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E3CD42B0&gt;</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1146,31 +2666,31 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>dweibull</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5735323537382032</v>
+        <v>0.1890335866357717</v>
       </c>
       <c r="C6" t="n">
-        <v>1.019674571557795</v>
+        <v>1.353110804711803</v>
       </c>
       <c r="D6" t="n">
-        <v>0.283167839617915</v>
+        <v>0.5071454714104433</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(3.082340138651257,)</t>
+          <t>(1.2181483708298364,)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(3.082340138651257, 1.019674571557795, 0.283167839617915)</t>
+          <t>(1.2181483708298364, 1.3531108047118028, 0.5071454714104433)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F20001CD30&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E215C9A0&gt;</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1185,31 +2705,31 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>dweibull</t>
+          <t>t</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6187584581045422</v>
+        <v>0.2346070754798615</v>
       </c>
       <c r="C7" t="n">
-        <v>1.012022049700162</v>
+        <v>1.390651515232074</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3126965905790773</v>
+        <v>0.5293695345507</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(1.0198276019376176,)</t>
+          <t>(7.738033314555654,)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(1.0198276019376176, 1.0120220497001617, 0.31269659057907734)</t>
+          <t>(7.738033314555654, 1.3906515152320735, 0.5293695345507)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F212F98F70&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF879A20&gt;</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1224,31 +2744,31 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>norm</t>
+          <t>loggamma</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.408989561556657</v>
+        <v>0.2834159883825462</v>
       </c>
       <c r="C8" t="n">
-        <v>1.114523918970242</v>
+        <v>-179.4734358189968</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4513000546565478</v>
+        <v>24.71087275784137</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>()</t>
+          <t>(1512.4272424891387,)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(1.1145239189702425, 0.45130005465654777)</t>
+          <t>(1512.4272424891387, -179.4734358189968, 24.710872757841372)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2132B02E0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160DF879DB0&gt;</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1263,31 +2783,31 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>loggamma</t>
+          <t>norm</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.509319833188615</v>
+        <v>0.2860858616445275</v>
       </c>
       <c r="C9" t="n">
-        <v>-153.0382192828993</v>
+        <v>1.447532002368255</v>
       </c>
       <c r="D9" t="n">
-        <v>20.45976526965001</v>
+        <v>0.6150757658025672</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(1871.8015600502522,)</t>
+          <t>()</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(1871.8015600502522, -153.03821928289926, 20.459765269650013)</t>
+          <t>(1.4475320023682552, 0.6150757658025672)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26606B040&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E4FF5930&gt;</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1306,13 +2826,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.203230385601561</v>
+        <v>1.040519685214984</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4609107158823683</v>
+        <v>0.4491793235927138</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6536132030878742</v>
+        <v>0.9983526787755415</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1321,12 +2841,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(0.4609107158823683, 0.6536132030878742)</t>
+          <t>(0.4491793235927138, 0.9983526787755415)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F213228640&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E215C310&gt;</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1345,27 +2865,27 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.203230444973406</v>
+        <v>1.040519699607729</v>
       </c>
       <c r="C11" t="n">
-        <v>-33554431.53908928</v>
+        <v>-134217727.5508207</v>
       </c>
       <c r="D11" t="n">
-        <v>33554432</v>
+        <v>134217728</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>(51336833.90762875,)</t>
+          <t>(134439192.93606192,)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(51336833.90762875, -33554431.539089285, 33554432.0)</t>
+          <t>(134439192.93606192, -134217727.55082068, 134217728.0)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F21322A830&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E4FF42E0&gt;</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1384,13 +2904,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.949660145828141</v>
+        <v>1.899951492984156</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4609107158823683</v>
+        <v>0.4491793235927138</v>
       </c>
       <c r="D12" t="n">
-        <v>4.611346419811895</v>
+        <v>4.399087627081565</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1399,12 +2919,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(0.4609107158823683, 4.611346419811895)</t>
+          <t>(0.4491793235927138, 4.399087627081565)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2000FF460&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E50A3250&gt;</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1494,33 +3014,32 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.07832082906902976</v>
+        <v>0.05442769418105981</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4045143423595011</v>
+        <v>0.3407022408721309</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2293516438748527</v>
+        <v>0.3316517443637065</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(3.0534125145680733,)</t>
+          <t>(3.2563262789389773,)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(3.0534125145680733, 0.4045143423595011, 0.22935164387485274)</t>
+          <t>(3.2563262789389773, 0.34070224087213086, 0.3316517443637065)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2144AD390&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E39132B0&gt;</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
           <t>#e41a1c</t>
@@ -1534,33 +3053,32 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.08058257470376523</v>
+        <v>0.05442796742324919</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4072801467500877</v>
+        <v>0.3406984672399934</v>
       </c>
       <c r="D3" t="n">
-        <v>19.86399655907722</v>
+        <v>221507320.4814202</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(2.922388853773005, 80.2736488001494)</t>
+          <t>(3.2563557570773263, 667895360.2396576)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(2.922388853773005, 80.2736488001494, 0.4072801467500877, 19.863996559077222)</t>
+          <t>(3.2563557570773263, 667895360.2396576, 0.3406984672399934, 221507320.48142025)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2143F7D00&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E3910D00&gt;</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
           <t>#e41a1c</t>
@@ -1574,33 +3092,32 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1014571067337262</v>
+        <v>0.05852964604717601</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2767670058197931</v>
+        <v>0.06442394008662226</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7384170233182508</v>
+        <v>1.235245378609439</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(0.48190099210174314,)</t>
+          <t>(0.4346068179902034,)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(0.48190099210174314, 0.27676700581979313, 0.7384170233182508)</t>
+          <t>(0.4346068179902034, 0.06442394008662226, 1.2352453786094388)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2143F71F0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E39124A0&gt;</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
           <t>#377eb8</t>
@@ -1614,33 +3131,32 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.156327353787047</v>
+        <v>0.07086620117662121</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9074006559928648</v>
+        <v>1.135952599634701</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2868222633999027</v>
+        <v>0.4424916476230797</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(-0.10419797183653852,)</t>
+          <t>(-0.062304737280385915,)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(-0.10419797183653852, 0.9074006559928648, 0.2868222633999027)</t>
+          <t>(-0.062304737280385915, 1.1359525996347013, 0.44249164762307974)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2143F48B0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E3911A80&gt;</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
           <t>#4daf4a</t>
@@ -1654,33 +3170,32 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6112184056482957</v>
+        <v>0.2406594455324942</v>
       </c>
       <c r="C6" t="n">
-        <v>1.045978940887937</v>
+        <v>1.358165061070987</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3306002623491847</v>
+        <v>0.4993015650505468</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(1.19365196892233,)</t>
+          <t>(1.2469102118701256,)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(1.19365196892233, 1.0459789408879372, 0.33060026234918466)</t>
+          <t>(1.2469102118701256, 1.3581650610709874, 0.4993015650505468)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F21322B8B0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E3913610&gt;</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
           <t>#984ea3</t>
@@ -1694,33 +3209,32 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.655650109187487</v>
+        <v>0.2858406108072939</v>
       </c>
       <c r="C7" t="n">
-        <v>1.056421547415768</v>
+        <v>1.362126257281688</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3334347415076014</v>
+        <v>0.5088978513983721</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(5.960785491051903,)</t>
+          <t>(7.078133294392083,)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(5.960785491051903, 1.0564215474157677, 0.33343474150760144)</t>
+          <t>(7.078133294392083, 1.362126257281688, 0.5088978513983721)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F26606B580&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E3913940&gt;</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
           <t>#ff7f00</t>
@@ -1734,13 +3248,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8051404639293518</v>
+        <v>0.3325151722755784</v>
       </c>
       <c r="C8" t="n">
-        <v>1.104822422409923</v>
+        <v>1.420668001676955</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4089791138825862</v>
+        <v>0.6025607026330041</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1749,18 +3263,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(1.104822422409923, 0.40897911388258623)</t>
+          <t>(1.420668001676955, 0.6025607026330041)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2144AFAF0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E5513370&gt;</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
           <t>#ffff33</t>
@@ -1774,33 +3287,32 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8376607012587352</v>
+        <v>0.34222966571781</v>
       </c>
       <c r="C9" t="n">
-        <v>-143.9392801028914</v>
+        <v>-241.214424965729</v>
       </c>
       <c r="D9" t="n">
-        <v>18.96444914013226</v>
+        <v>31.00895287603446</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(2097.617607229681,)</t>
+          <t>(2502.1196966936895,)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(2097.617607229681, -143.93928010289142, 18.96444914013226)</t>
+          <t>(2502.1196966936895, -241.214424965729, 31.008952876034456)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2143F7F40&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E3910460&gt;</t>
         </is>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
           <t>#a65628</t>
@@ -1810,37 +3322,1536 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>expon</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.308073511457521</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3923866009632037</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.028281400713751</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(0.3923866009632037, 1.0282814007137513)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E5804820&gt;</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>#f781bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>pareto</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>1.308073511714663</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-134217727.6076134</v>
+      </c>
+      <c r="D11" t="n">
+        <v>134217728</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>(130526263.04503725,)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(130526263.04503725, -134217727.6076134, 134217728.0)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E39117E0&gt;</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.070368034944237</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.3923866009632037</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4.48706988623826</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(0.3923866009632037, 4.48706988623826)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160E39102E0&gt;</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>arg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_pass</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.05266774739452593</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1991030977845756</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.014301557474448</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>(0.47676822980271505,)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(0.47676822980271505, 0.19910309778457558, 1.0143015574744478)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9F76C50&gt;</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>genextreme</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.05871654018983613</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.062875308325382</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3842904672120383</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(-0.12220413836944385,)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(-0.12220413836944385, 1.062875308325382, 0.3842904672120383)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9F743D0&gt;</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0872827377029033</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3335403494929068</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.295640303830084</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>(3.392649945398146,)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(3.392649945398146, 0.3335403494929068, 0.295640303830084)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9F76A40&gt;</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>#377eb8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1576262732505576</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1607208704159925</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.36188667782206</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(4.600497026843186, 47.518206869615256)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(4.600497026843186, 47.518206869615256, 0.1607208704159925, 13.36188667782206)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9D14610&gt;</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>#4daf4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3222496392940756</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.234825745235121</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4102291159010006</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(3.8706618090245186,)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(3.8706618090245186, 1.2348257452351208, 0.41022911590100064)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9F76F20&gt;</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>#984ea3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>dweibull</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.3240430565859765</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.22802776728756</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4331245936127045</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(1.0949490086515459,)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(1.0949490086515459, 1.2280277672875601, 0.4331245936127045)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9F77400&gt;</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>#ff7f00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>norm</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.581762781638769</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.336546219657915</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5847516789815117</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(1.336546219657915, 0.5847516789815117)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9F74D90&gt;</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>#ffff33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loggamma</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.6346438100763842</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-157.8790498615938</v>
+      </c>
+      <c r="D9" t="n">
+        <v>22.2056080617087</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(1300.4067955810574,)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(1300.4067955810574, -157.87904986159378, 22.205608061708702)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9D17100&gt;</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>#a65628</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pareto</t>
+        </is>
+      </c>
       <c r="B10" t="n">
-        <v>2.866112482773097</v>
+        <v>2.052335010479822</v>
       </c>
       <c r="C10" t="n">
-        <v>-134217727.5743582</v>
+        <v>-536870911.6469083</v>
+      </c>
+      <c r="D10" t="n">
+        <v>536870912</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>(545903152.0532763,)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(545903152.0532763, -536870911.6469083, 536870912.0)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9F75960&gt;</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>#f781bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>expon</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.05233512046534</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3530917215313802</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9834544981265347</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(0.3530917215313802, 0.9834544981265347)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9F748E0&gt;</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3.195159432499167</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.3530917215313802</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5.159884605347729</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(0.3530917215313802, 5.159884605347729)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9D15300&gt;</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>arg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_pass</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0459198364610628</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3555188322547117</v>
+      </c>
+      <c r="D2" t="n">
+        <v>44262738645.21141</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>(3.2565675679886255, 144062369147.10773)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(3.2565675679886255, 144062369147.10773, 0.3555188322547117, 44262738645.21141)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA976650&gt;</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.04602463166757905</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3524514578417651</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2996755117848051</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(3.339539374631387,)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(3.339539374631387, 0.35245145784176507, 0.2996755117848051)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA976710&gt;</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.05584280750397096</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1887851779884893</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.043805676065686</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>(0.46848195716724833,)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(0.46848195716724833, 0.18878517798848926, 1.043805676065686)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA9763B0&gt;</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>#377eb8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>genextreme</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.08039765125044152</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.082572665503527</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3941804846294298</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(-0.10188339414725653,)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(-0.10188339414725653, 1.0825726655035273, 0.3941804846294298)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA976770&gt;</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>#4daf4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2926723292208493</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.274270924513844</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4348504919131192</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(4.787273471894226,)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(4.787273471894226, 1.2742709245138442, 0.4348504919131192)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA9761A0&gt;</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>#984ea3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>norm</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.4022896700968062</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.353227041941848</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5722252967110735</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(1.3532270419418482, 0.5722252967110735)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA976D70&gt;</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>#ff7f00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>dweibull</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.4145634675192485</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.274523760991753</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4461859873169888</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>(1.1583311189676524,)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(1.1583311189676524, 1.2745237609917535, 0.4461859873169888)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA977790&gt;</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>#ffff33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loggamma</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.4245902039627445</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-196.7203161136147</v>
+      </c>
+      <c r="D9" t="n">
+        <v>26.14807174123969</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(1949.3607147345679,)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(1949.3607147345679, -196.72031611361467, 26.14807174123969)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA976740&gt;</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>#a65628</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pareto</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.786716779768448</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-134217727.625543</v>
+      </c>
+      <c r="D10" t="n">
+        <v>134217727.9999999</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>(137128964.9084,)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(137128964.9084, -134217727.62554298, 134217727.99999993)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA976560&gt;</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>#f781bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>expon</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.786716781473817</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3744569536477807</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9787700882940675</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(0.3744569536477807, 0.9787700882940675)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA976CE0&gt;</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.742259505223814</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.3744569536477807</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4.565295202048018</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(0.3744569536477807, 4.565295202048018)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA975720&gt;</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>arg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_pass</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.05222969067039056</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3729917255007353</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3105862998572165</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>(3.1200699363365754,)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(3.1200699363365754, 0.37299172550073534, 0.3105862998572165)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA6B19F0&gt;</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.06897271944493914</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1827681768210868</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.039320809703075</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(0.47041808344493413,)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(0.47041808344493413, 0.1827681768210868, 1.0393208097030753)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA6B0A00&gt;</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>genextreme</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.093735510354523</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.074735948322126</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3973964114889265</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>(-0.08989507206896148,)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(-0.08989507206896148, 1.0747359483221257, 0.39739641148892646)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA6776D0&gt;</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>#377eb8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1455137836054006</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.06476230146828754</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.96730911778349</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(6.529027076976956, 72.13768157470223)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(6.529027076976956, 72.13768157470223, -0.06476230146828754, 16.967309117783493)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA6B05B0&gt;</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>#4daf4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>dweibull</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3047603298298381</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.26437765987079</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4502006440379284</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(1.186933628008193,)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(1.186933628008193, 1.2643776598707903, 0.45020064403792837)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA677BB0&gt;</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>#984ea3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.3163267122212288</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.278701897910439</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4554938035187537</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(6.026837098545266,)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(6.026837098545266, 1.2787018979104388, 0.4554938035187537)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA6B0E80&gt;</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>#ff7f00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>norm</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.3970097348761911</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.342036833465027</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.559555256219589</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(1.3420368334650274, 0.559555256219589)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA677730&gt;</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>#ffff33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loggamma</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.4165229659321277</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-215.8448171875531</v>
+      </c>
+      <c r="D9" t="n">
+        <v>27.95436773817279</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(2367.5899893914147,)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(2367.5899893914147, -215.84481718755308, 27.95436773817279)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA6B2020&gt;</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>#a65628</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pareto</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.634869667565692</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-134217727.6057253</v>
       </c>
       <c r="D10" t="n">
         <v>134217728</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>(197617149.02084002,)</t>
+          <t>(141615417.6140924,)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(197617149.02084002, -134217727.57435815, 134217728.0)</t>
+          <t>(141615417.6140924, -134217727.60572529, 134217727.99999999)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2144AFB20&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA6778E0&gt;</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
           <t>#f781bf</t>
@@ -1854,13 +4865,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.866112515585188</v>
+        <v>1.634869680806782</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4256418527483496</v>
+        <v>0.3942747065611345</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6791805696615734</v>
+        <v>0.9477621269038929</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1869,18 +4880,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(0.42564185274834965, 0.6791805696615734)</t>
+          <t>(0.3942747065611345, 0.9477621269038929)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2143F7FA0&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA677DC0&gt;</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
           <t>#999999</t>
@@ -1894,13 +4904,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.302789736649089</v>
+        <v>2.555234177812197</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4256418527483496</v>
+        <v>0.3942747065611345</v>
       </c>
       <c r="D12" t="n">
-        <v>2.669249325175244</v>
+        <v>4.245793522405242</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1909,18 +4919,1517 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(0.42564185274834965, 2.669249325175244)</t>
+          <t>(0.3942747065611345, 4.245793522405242)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x000002F2143F5E70&gt;</t>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA6B1C00&gt;</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>arg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_pass</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>genextreme</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.1409477982320243</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9588251840438173</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3087283711889155</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>(-0.09315306029654821,)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(-0.09315306029654821, 0.9588251840438173, 0.3087283711889155)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA707880&gt;</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1446430320832005</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2133139315436714</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8651267209875032</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(0.44170170648384544,)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(0.44170170648384544, 0.21331393154367143, 0.8651267209875032)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000161C5D33250&gt;</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1951499583137932</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.355030612773972</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2236425344231223</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>(3.6357883922702734,)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(3.6357883922702734, 0.355030612773972, 0.2236425344231223)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000161C5D31CF0&gt;</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>#377eb8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.19515040997303</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3550281520921227</v>
+      </c>
+      <c r="D5" t="n">
+        <v>617627.9488343892</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(3.635591816674246, 2761568.5663882243)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(3.635591816674246, 2761568.5663882243, 0.3550281520921227, 617627.9488343892)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000161C5D32230&gt;</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>#4daf4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5137224179657959</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.093406357465948</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3162832344961624</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(3.8007894621835168,)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(3.8007894621835168, 1.0934063574659483, 0.31628323449616236)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000161C5D31180&gt;</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>#984ea3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>dweibull</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5352101457170454</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.095011316571985</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.340899660766236</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(1.1232754027406426,)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(1.1232754027406426, 1.095011316571985, 0.340899660766236)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000161C5D33DC0&gt;</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>#ff7f00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>norm</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9727477453579318</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.168145427548611</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4561646320393101</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(1.1681454275486107, 0.4561646320393101)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA707790&gt;</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>#ffff33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loggamma</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1.033446603327097</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-214.3884882469747</v>
+      </c>
+      <c r="D9" t="n">
+        <v>26.70626612616469</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(3201.94728392234,)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(3201.94728392234, -214.38848824697467, 26.706266126164692)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000161C5D31D20&gt;</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>#a65628</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pareto</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3.73146091686686</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-268435455.6162383</v>
+      </c>
+      <c r="D10" t="n">
+        <v>268435456</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>(342224677.2600543,)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(342224677.2600543, -268435455.61623827, 268435455.99999997)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000161C5D31480&gt;</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>#f781bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>expon</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.73146094835876</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3837617219546154</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7843837055939953</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(0.38376172195461544, 0.7843837055939953)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA706620&gt;</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5.936596709731858</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.3837617219546154</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4.626969842237406</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(0.38376172195461544, 4.626969842237406)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000161C5D31B40&gt;</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>arg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_pass</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.05254849254955914</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2182230061066368</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8598160077616451</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>(0.44226888428536854,)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(0.44226888428536854, 0.21822300610663684, 0.8598160077616451)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA2FAC80&gt;</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>genextreme</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.06356181057620185</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9594118357703832</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3080968130653638</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(-0.08925976227476282,)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(-0.08925976227476282, 0.9594118357703832, 0.3080968130653638)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9FD5DE0&gt;</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.08352674092642794</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3614715168302663</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2223008167567637</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>(3.622613512444447,)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(3.622613512444447, 0.3614715168302663, 0.22230081675676366)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA2FB280&gt;</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>#377eb8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1114638457483138</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2702822503757311</v>
+      </c>
+      <c r="D5" t="n">
+        <v>782564846083.286</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(5.180148656416625, 4575676530953.18)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(5.180148656416625, 4575676530953.18, 0.27028225037573106, 782564846083.286)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA2FB550&gt;</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>#4daf4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>dweibull</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4356043802565291</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.095875706051033</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3455825239939859</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(1.1638343235356718,)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(1.1638343235356718, 1.0958757060510327, 0.34558252399398587)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160F9FD5F90&gt;</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>#984ea3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.4629155599784596</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.100526073397413</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.328941883814818</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(4.388317405235799,)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(4.388317405235799, 1.100526073397413, 0.32894188381481804)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA2F80D0&gt;</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>#ff7f00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>norm</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.7637286697085152</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.166783431922027</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4450617192168603</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(1.1667834319220272, 0.4450617192168603)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA977C40&gt;</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>#ffff33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loggamma</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.7999759073214509</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-149.6249932999728</v>
+      </c>
+      <c r="D9" t="n">
+        <v>19.97160125914951</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(1901.5567781497261,)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(1901.5567781497261, -149.6249932999728, 19.97160125914951)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA2F91E0&gt;</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>#a65628</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>expon</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3.40435805420378</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3863171367461962</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.780466295175831</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(0.38631713674619617, 0.780466295175831)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA2F8E50&gt;</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>#f781bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pareto</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.404358068261482</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-67108863.61368287</v>
+      </c>
+      <c r="D11" t="n">
+        <v>67108864</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>(85985602.07312068,)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(85985602.07312068, -67108863.613682866, 67108864.0)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA2F9210&gt;</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5.120858699612493</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.3863171367461962</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3.948252332727094</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(0.38631713674619617, 3.9482523327270944)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA2F9570&gt;</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>scale</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>arg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>bootstrap_pass</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>lognorm</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.136569385785074</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.289638580978031</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7769756723613237</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>(0.4797861387760791,)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(0.4797861387760791, 0.28963858097803097, 0.7769756723613237)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA7BFAC0&gt;</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>genextreme</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1626941393066599</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9528378360331562</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2992493372160795</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(-0.10879147153867087,)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(-0.10879147153867087, 0.9528378360331562, 0.2992493372160795)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA7BEB00&gt;</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>#e41a1c</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1643439308362812</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4250801006495956</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2407439904945831</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>(3.055316967915104,)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(3.055316967915104, 0.42508010064959556, 0.24074399049458306)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA7BFA90&gt;</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>#377eb8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1646807455162467</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4260620481520749</v>
+      </c>
+      <c r="D5" t="n">
+        <v>539380.3790082464</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(3.027532687714204, 2220846.6942671854)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(3.027532687714204, 2220846.6942671854, 0.42606204815207493, 539380.3790082464)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA7BEC20&gt;</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>#4daf4a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>dweibull</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6498171519500634</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.088051823414701</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3446629722360763</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(1.175582463466152,)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(1.175582463466152, 1.0880518234147014, 0.34466297223607634)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA7BFC70&gt;</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>#984ea3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.7080639953338808</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.098326891045007</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3354563461287657</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(4.850094305886974,)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(4.850094305886974, 1.0983268910450068, 0.33545634612876574)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA7BE6E0&gt;</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>#ff7f00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>norm</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9441241478836978</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.160625757896901</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4335269219998019</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(1.1606257578969008, 0.43352692199980186)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA7BE740&gt;</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>#ffff33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>loggamma</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.9856622321134914</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-115.6250056314801</v>
+      </c>
+      <c r="D9" t="n">
+        <v>16.28063407997273</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(1304.4995773318278,)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(1304.4995773318278, -115.62500563148006, 16.280634079972728)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA7BEB30&gt;</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>#a65628</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>expon</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3.014002102801317</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4428000880687884</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7178256698281125</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(0.4428000880687884, 0.7178256698281125)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA7BD540&gt;</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>#f781bf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pareto</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.014002116546092</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-67108863.55719988</v>
+      </c>
+      <c r="D11" t="n">
+        <v>67108863.99999996</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>(93489084.40355471,)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(93489084.40355471, -67108863.55719988, 67108863.99999996)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA7BEE00&gt;</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>#999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>uniform</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4.437350926937542</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4428000880687884</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.943240998699344</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(0.4428000880687884, 2.943240998699344)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>&lt;scipy.stats._distn_infrastructure.rv_continuous_frozen object at 0x00000160FA7BEBC0&gt;</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
       <c r="J12" t="inlineStr">
         <is>
           <t>#999999</t>
